--- a/decision_AI/dataset_bit.xlsx
+++ b/decision_AI/dataset_bit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\muy2yh\25_work\AI診断ビット\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WSPTジャパン\Desktop\react\searching-goods-main\decision_AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B742FE2-5AD5-4157-AC80-C1734BDF407C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CDA8D8-9C92-46EE-96B2-BB12AF8D884A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EF91B03D-5A3B-46C3-A955-4A9CE08C0D54}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{EF91B03D-5A3B-46C3-A955-4A9CE08C0D54}"/>
   </bookViews>
   <sheets>
     <sheet name="ビットを選ぶ (hand)" sheetId="7" r:id="rId1"/>
@@ -1948,7 +1948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B7C5DC-5943-46ED-8FC7-4BA9A16B4E19}">
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
@@ -4056,8 +4056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6003B1-8E2C-4015-8332-FAFB3E57EEFE}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
